--- a/output/5Y_P15_KFSDIV.xlsx
+++ b/output/5Y_P15_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -1249,7 +1252,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-35</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>10.8505</v>
@@ -1293,7 +1296,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-34</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>11.8576</v>
@@ -1343,7 +1346,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-33</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>12.5699</v>
@@ -1393,7 +1396,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-32</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>13.5994</v>
@@ -1443,7 +1446,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-31</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>14.6663</v>
@@ -1493,7 +1496,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-30</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>14.701</v>
@@ -1543,7 +1546,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-29</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.8109</v>
@@ -1593,7 +1596,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-28</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.9322</v>
@@ -1643,7 +1646,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-27</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>12.5846</v>
@@ -1693,7 +1696,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-26</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>12.2867</v>
@@ -1743,7 +1746,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-25</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.0645</v>
@@ -1793,7 +1796,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-24</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.8083</v>
@@ -1843,7 +1846,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-23</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.5636</v>
@@ -1893,7 +1896,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-22</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>13.1788</v>
@@ -1943,7 +1946,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-21</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>14.5668</v>
@@ -1993,7 +1996,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-20</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>13.962</v>
@@ -2043,7 +2046,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-19</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>12.2659</v>
@@ -2093,7 +2096,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>12.4103</v>
@@ -2143,7 +2146,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-17</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>12.3976</v>
@@ -2193,7 +2196,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-16</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>12.9013</v>
@@ -2243,7 +2246,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-15</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>13.3527</v>
@@ -2293,7 +2296,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-14</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>13.8804</v>
@@ -2343,7 +2346,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>-13</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>14.6268</v>
@@ -2393,7 +2396,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>-12</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>15.3636</v>
@@ -2443,7 +2446,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>-11</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>13.8711</v>
@@ -2493,7 +2496,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>-10</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>14.1252</v>
@@ -2543,7 +2546,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>-9</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>14.1934</v>
@@ -2593,7 +2596,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>-8</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>14.1176</v>
@@ -2643,7 +2646,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>-7</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>15.3311</v>
@@ -2693,7 +2696,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>-6</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>15.3637</v>
@@ -2743,7 +2746,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>-5</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>14.6447</v>
@@ -2793,7 +2796,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>-4</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>15.486</v>
@@ -2843,7 +2846,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>-3</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>16.1958</v>
@@ -2893,7 +2896,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>-2</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>16.4264</v>
@@ -2943,7 +2946,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>-1</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>17.107</v>
@@ -2993,7 +2996,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>16.8894</v>
@@ -3043,7 +3046,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>16.4004</v>
@@ -3093,7 +3096,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>15.3877</v>
@@ -3143,7 +3146,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>14.6367</v>
@@ -3193,7 +3196,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>13.0061</v>
@@ -3243,7 +3246,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>13.835</v>
@@ -3293,7 +3296,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>14.4216</v>
@@ -3343,7 +3346,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>13.2404</v>
@@ -3393,7 +3396,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>12.382</v>
@@ -3443,7 +3446,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>11.9583</v>
@@ -3493,7 +3496,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>12.2036</v>
@@ -3543,7 +3546,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>12.9136</v>
@@ -3593,7 +3596,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>13.4338</v>
@@ -3643,7 +3646,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>12.9657</v>
@@ -3693,7 +3696,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>13.3568</v>
@@ -3743,7 +3746,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>13.2487</v>
@@ -3793,7 +3796,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>13.3991</v>
@@ -3843,7 +3846,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>13.5985</v>
@@ -3893,7 +3896,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>13.6955</v>
@@ -3943,7 +3946,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>13.3398</v>
@@ -3993,7 +3996,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>12.8469</v>
@@ -4043,7 +4046,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>13.129</v>
@@ -4093,7 +4096,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>12.716</v>
@@ -4143,7 +4146,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>12.4613</v>
@@ -4193,7 +4196,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>12.6545</v>
@@ -4243,7 +4246,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>12.2345</v>
@@ -4378,7 +4381,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-35</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>10.8505</v>
@@ -4425,7 +4428,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-34</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>11.8576</v>
@@ -4478,7 +4481,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-33</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>12.5699</v>
@@ -4531,7 +4534,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-32</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>13.5994</v>
@@ -4584,7 +4587,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-31</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>14.6663</v>
@@ -4637,7 +4640,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-30</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>14.701</v>
@@ -4690,7 +4693,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-29</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.8109</v>
@@ -4743,7 +4746,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-28</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.9322</v>
@@ -4796,7 +4799,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-27</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>12.5846</v>
@@ -4849,7 +4852,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-26</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>12.2867</v>
@@ -4902,7 +4905,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-25</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.0645</v>
@@ -4955,7 +4958,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-24</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.8083</v>
@@ -5008,7 +5011,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-23</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.5636</v>
@@ -5061,7 +5064,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-22</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>13.1788</v>
@@ -5114,7 +5117,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-21</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>14.5668</v>
@@ -5167,7 +5170,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-20</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>13.962</v>
@@ -5197,10 +5200,10 @@
         <v>171548.5363</v>
       </c>
       <c r="K17" s="1">
-        <v>134104.4101</v>
+        <v>134123.4418</v>
       </c>
       <c r="L17" s="1">
-        <v>12.9971</v>
+        <v>12.999</v>
       </c>
       <c r="M17" s="1">
         <v>0.5</v>
@@ -5220,7 +5223,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-19</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>12.2659</v>
@@ -5250,10 +5253,10 @@
         <v>166689.9005</v>
       </c>
       <c r="K18" s="1">
-        <v>150397.4577</v>
+        <v>150416.4894</v>
       </c>
       <c r="L18" s="1">
-        <v>13.0978</v>
+        <v>13.0995</v>
       </c>
       <c r="M18" s="1">
         <v>0</v>
@@ -5273,7 +5276,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>12.4103</v>
@@ -5303,10 +5306,10 @@
         <v>178572.9907</v>
       </c>
       <c r="K19" s="1">
-        <v>179952.1613</v>
+        <v>179971.193</v>
       </c>
       <c r="L19" s="1">
-        <v>12.958</v>
+        <v>12.9594</v>
       </c>
       <c r="M19" s="1">
         <v>0</v>
@@ -5326,7 +5329,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-17</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>12.3976</v>
@@ -5356,10 +5359,10 @@
         <v>188356.3227</v>
       </c>
       <c r="K20" s="1">
-        <v>187983.0987</v>
+        <v>188002.1304</v>
       </c>
       <c r="L20" s="1">
-        <v>12.9348</v>
+        <v>12.9361</v>
       </c>
       <c r="M20" s="1">
         <v>0.5</v>
@@ -5379,7 +5382,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-16</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>12.9013</v>
@@ -5409,10 +5412,10 @@
         <v>212574.995</v>
       </c>
       <c r="K21" s="1">
-        <v>198208.4972</v>
+        <v>198227.5289</v>
       </c>
       <c r="L21" s="1">
-        <v>12.9073</v>
+        <v>12.9086</v>
       </c>
       <c r="M21" s="1">
         <v>0</v>
@@ -5432,7 +5435,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-15</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>13.3527</v>
@@ -5462,10 +5465,10 @@
         <v>229563.6248</v>
       </c>
       <c r="K22" s="1">
-        <v>200498.0593</v>
+        <v>200517.091</v>
       </c>
       <c r="L22" s="1">
-        <v>12.9076</v>
+        <v>12.9088</v>
       </c>
       <c r="M22" s="1">
         <v>0</v>
@@ -5485,7 +5488,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-14</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>13.8804</v>
@@ -5515,10 +5518,10 @@
         <v>247850.0859</v>
       </c>
       <c r="K23" s="1">
-        <v>203512.3258</v>
+        <v>203531.3575</v>
       </c>
       <c r="L23" s="1">
-        <v>12.9143</v>
+        <v>12.9155</v>
       </c>
       <c r="M23" s="1">
         <v>0.5</v>
@@ -5538,7 +5541,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>-13</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>14.6268</v>
@@ -5568,10 +5571,10 @@
         <v>276766.3709</v>
       </c>
       <c r="K24" s="1">
-        <v>205220.6408</v>
+        <v>205239.6725</v>
       </c>
       <c r="L24" s="1">
-        <v>12.922</v>
+        <v>12.9232</v>
       </c>
       <c r="M24" s="1">
         <v>0</v>
@@ -5591,7 +5594,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>-12</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>15.3636</v>
@@ -5621,10 +5624,10 @@
         <v>298351.7685</v>
       </c>
       <c r="K25" s="1">
-        <v>203381.5863</v>
+        <v>203407.9586</v>
       </c>
       <c r="L25" s="1">
-        <v>12.9082</v>
+        <v>12.9099</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
@@ -5644,7 +5647,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>-11</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>13.8711</v>
@@ -5674,10 +5677,10 @@
         <v>285037.1965</v>
       </c>
       <c r="K26" s="1">
-        <v>201789.8297</v>
+        <v>201822.561</v>
       </c>
       <c r="L26" s="1">
-        <v>12.8918</v>
+        <v>12.8939</v>
       </c>
       <c r="M26" s="1">
         <v>0.5</v>
@@ -5697,7 +5700,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>-10</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>14.1252</v>
@@ -5727,10 +5730,10 @@
         <v>306527.1111</v>
       </c>
       <c r="K27" s="1">
-        <v>235237.9641</v>
+        <v>235270.6954</v>
       </c>
       <c r="L27" s="1">
-        <v>13.026</v>
+        <v>13.0278</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -5750,7 +5753,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>-9</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>14.1934</v>
@@ -5780,10 +5783,10 @@
         <v>317759.5548</v>
       </c>
       <c r="K28" s="1">
-        <v>240679.8882</v>
+        <v>240712.6195</v>
       </c>
       <c r="L28" s="1">
-        <v>13.0495</v>
+        <v>13.0513</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -5803,7 +5806,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>-8</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>14.1176</v>
@@ -5833,10 +5836,10 @@
         <v>326283.4685</v>
       </c>
       <c r="K29" s="1">
-        <v>249460.7904</v>
+        <v>249493.5218</v>
       </c>
       <c r="L29" s="1">
-        <v>13.0875</v>
+        <v>13.0892</v>
       </c>
       <c r="M29" s="1">
         <v>0.5</v>
@@ -5856,7 +5859,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>-7</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>15.3311</v>
@@ -5886,10 +5889,10 @@
         <v>368881.3878</v>
       </c>
       <c r="K30" s="1">
-        <v>260947.6867</v>
+        <v>260980.418</v>
       </c>
       <c r="L30" s="1">
-        <v>13.1307</v>
+        <v>13.1323</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -5909,7 +5912,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>-6</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>15.3637</v>
@@ -5939,10 +5942,10 @@
         <v>379499.2802</v>
       </c>
       <c r="K31" s="1">
-        <v>246824.9197</v>
+        <v>246914.0987</v>
       </c>
       <c r="L31" s="1">
-        <v>13.0225</v>
+        <v>13.0272</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -5962,7 +5965,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>-5</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>14.6447</v>
@@ -5992,10 +5995,10 @@
         <v>375421.3437</v>
       </c>
       <c r="K32" s="1">
-        <v>256244.6586</v>
+        <v>256333.8376</v>
       </c>
       <c r="L32" s="1">
-        <v>13.0967</v>
+        <v>13.1012</v>
       </c>
       <c r="M32" s="1">
         <v>1</v>
@@ -6015,7 +6018,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>-4</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>15.486</v>
@@ -6045,10 +6048,10 @@
         <v>420742.3725</v>
       </c>
       <c r="K33" s="1">
-        <v>280381.3527</v>
+        <v>280470.5317</v>
       </c>
       <c r="L33" s="1">
-        <v>13.219</v>
+        <v>13.2232</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -6068,7 +6071,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>-3</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>16.1958</v>
@@ -6098,10 +6101,10 @@
         <v>445409.9881</v>
       </c>
       <c r="K34" s="1">
-        <v>272541.6892</v>
+        <v>272662.1925</v>
       </c>
       <c r="L34" s="1">
-        <v>13.1629</v>
+        <v>13.1687</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -6121,7 +6124,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>-2</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>16.4264</v>
@@ -6151,10 +6154,10 @@
         <v>460109.8656</v>
       </c>
       <c r="K35" s="1">
-        <v>267855.3608</v>
+        <v>267994.5769</v>
       </c>
       <c r="L35" s="1">
-        <v>13.1196</v>
+        <v>13.1264</v>
       </c>
       <c r="M35" s="1">
         <v>0.75</v>
@@ -6174,7 +6177,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>-1</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>17.107</v>
@@ -6204,10 +6207,10 @@
         <v>497956.2325</v>
       </c>
       <c r="K36" s="1">
-        <v>273176.7244</v>
+        <v>273315.9405</v>
       </c>
       <c r="L36" s="1">
-        <v>13.1716</v>
+        <v>13.1783</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -6227,7 +6230,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>16.8894</v>
@@ -6257,10 +6260,10 @@
         <v>503503.5358</v>
       </c>
       <c r="K37" s="1">
-        <v>269073.8558</v>
+        <v>269229.4677</v>
       </c>
       <c r="L37" s="1">
-        <v>13.1253</v>
+        <v>13.1329</v>
       </c>
       <c r="M37" s="1">
         <v>1</v>
@@ -6280,7 +6283,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>16.4004</v>
@@ -6310,10 +6313,10 @@
         <v>521473.3245</v>
       </c>
       <c r="K38" s="1">
-        <v>283584.5155</v>
+        <v>283740.1274</v>
       </c>
       <c r="L38" s="1">
-        <v>13.2777</v>
+        <v>13.285</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -6333,7 +6336,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>15.3877</v>
@@ -6363,10 +6366,10 @@
         <v>508543.8316</v>
       </c>
       <c r="K39" s="1">
-        <v>304089.1415</v>
+        <v>304244.7534</v>
       </c>
       <c r="L39" s="1">
-        <v>13.4519</v>
+        <v>13.4588</v>
       </c>
       <c r="M39" s="1">
         <v>0</v>
@@ -6386,7 +6389,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>14.6367</v>
@@ -6416,10 +6419,10 @@
         <v>499866.012</v>
       </c>
       <c r="K40" s="1">
-        <v>337068.4161</v>
+        <v>337224.028</v>
       </c>
       <c r="L40" s="1">
-        <v>13.6219</v>
+        <v>13.6282</v>
       </c>
       <c r="M40" s="1">
         <v>0</v>
@@ -6439,7 +6442,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>13.0061</v>
@@ -6469,10 +6472,10 @@
         <v>466304.5432</v>
       </c>
       <c r="K41" s="1">
-        <v>365728.9941</v>
+        <v>365884.606</v>
       </c>
       <c r="L41" s="1">
-        <v>13.6983</v>
+        <v>13.7042</v>
       </c>
       <c r="M41" s="1">
         <v>0.5</v>
@@ -6492,7 +6495,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>13.835</v>
@@ -6522,10 +6525,10 @@
         <v>513595.8034</v>
       </c>
       <c r="K42" s="1">
-        <v>419390.473</v>
+        <v>419546.0849</v>
       </c>
       <c r="L42" s="1">
-        <v>13.6093</v>
+        <v>13.6144</v>
       </c>
       <c r="M42" s="1">
         <v>0</v>
@@ -6545,7 +6548,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>14.4216</v>
@@ -6575,10 +6578,10 @@
         <v>540981.8962</v>
       </c>
       <c r="K43" s="1">
-        <v>403836.987</v>
+        <v>404054.7558</v>
       </c>
       <c r="L43" s="1">
-        <v>13.5998</v>
+        <v>13.6071</v>
       </c>
       <c r="M43" s="1">
         <v>0</v>
@@ -6598,7 +6601,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>13.2404</v>
@@ -6628,10 +6631,10 @@
         <v>516580.112</v>
       </c>
       <c r="K44" s="1">
-        <v>396421.2836</v>
+        <v>396668.663</v>
       </c>
       <c r="L44" s="1">
-        <v>13.5848</v>
+        <v>13.5933</v>
       </c>
       <c r="M44" s="1">
         <v>0.4</v>
@@ -6651,7 +6654,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>12.382</v>
@@ -6681,10 +6684,10 @@
         <v>509028.9775</v>
       </c>
       <c r="K45" s="1">
-        <v>441001.1602</v>
+        <v>441248.5395</v>
       </c>
       <c r="L45" s="1">
-        <v>13.552</v>
+        <v>13.5596</v>
       </c>
       <c r="M45" s="1">
         <v>0</v>
@@ -6704,7 +6707,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>11.9583</v>
@@ -6734,10 +6737,10 @@
         <v>503822.3964</v>
       </c>
       <c r="K46" s="1">
-        <v>479031.493</v>
+        <v>479278.8723</v>
       </c>
       <c r="L46" s="1">
-        <v>13.4534</v>
+        <v>13.4603</v>
       </c>
       <c r="M46" s="1">
         <v>0</v>
@@ -6757,7 +6760,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>12.2036</v>
@@ -6787,10 +6790,10 @@
         <v>522952.2971</v>
       </c>
       <c r="K47" s="1">
-        <v>504186.5952</v>
+        <v>504433.9745</v>
       </c>
       <c r="L47" s="1">
-        <v>13.3715</v>
+        <v>13.378</v>
       </c>
       <c r="M47" s="1">
         <v>0.4</v>
@@ -6810,7 +6813,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>12.9136</v>
@@ -6840,10 +6843,10 @@
         <v>573286.7473</v>
       </c>
       <c r="K48" s="1">
-        <v>504959.2251</v>
+        <v>505206.6044</v>
       </c>
       <c r="L48" s="1">
-        <v>13.3696</v>
+        <v>13.3761</v>
       </c>
       <c r="M48" s="1">
         <v>0</v>
@@ -6863,7 +6866,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>13.4338</v>
@@ -6893,10 +6896,10 @@
         <v>602217.5966</v>
       </c>
       <c r="K49" s="1">
-        <v>488128.644</v>
+        <v>488443.2702</v>
       </c>
       <c r="L49" s="1">
-        <v>13.3849</v>
+        <v>13.3935</v>
       </c>
       <c r="M49" s="1">
         <v>0</v>
@@ -6916,7 +6919,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>12.9657</v>
@@ -6946,10 +6949,10 @@
         <v>595494.2676</v>
       </c>
       <c r="K50" s="1">
-        <v>479161.9564</v>
+        <v>479512.4209</v>
       </c>
       <c r="L50" s="1">
-        <v>13.3835</v>
+        <v>13.3933</v>
       </c>
       <c r="M50" s="1">
         <v>0.3</v>
@@ -6969,7 +6972,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>13.3568</v>
@@ -6999,10 +7002,10 @@
         <v>629833.497</v>
       </c>
       <c r="K51" s="1">
-        <v>505992.4696</v>
+        <v>506342.934</v>
       </c>
       <c r="L51" s="1">
-        <v>13.3621</v>
+        <v>13.3714</v>
       </c>
       <c r="M51" s="1">
         <v>0</v>
@@ -7022,7 +7025,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>13.2487</v>
@@ -7052,10 +7055,10 @@
         <v>635786.2655</v>
       </c>
       <c r="K52" s="1">
-        <v>501193.5369</v>
+        <v>501563.1847</v>
       </c>
       <c r="L52" s="1">
-        <v>13.3619</v>
+        <v>13.3718</v>
       </c>
       <c r="M52" s="1">
         <v>0</v>
@@ -7075,7 +7078,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>13.3991</v>
@@ -7105,10 +7108,10 @@
         <v>651519.5396</v>
       </c>
       <c r="K53" s="1">
-        <v>515297.0754</v>
+        <v>515666.7232</v>
       </c>
       <c r="L53" s="1">
-        <v>13.3595</v>
+        <v>13.3691</v>
       </c>
       <c r="M53" s="1">
         <v>0.4</v>
@@ -7128,7 +7131,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>13.5985</v>
@@ -7158,10 +7161,10 @@
         <v>683126.7852</v>
       </c>
       <c r="K54" s="1">
-        <v>519524.3708</v>
+        <v>519894.0186</v>
       </c>
       <c r="L54" s="1">
-        <v>13.3601</v>
+        <v>13.3696</v>
       </c>
       <c r="M54" s="1">
         <v>0</v>
@@ -7181,7 +7184,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>13.6955</v>
@@ -7211,10 +7214,10 @@
         <v>696898.0502000001</v>
       </c>
       <c r="K55" s="1">
-        <v>521795.0518</v>
+        <v>522164.6996</v>
       </c>
       <c r="L55" s="1">
-        <v>13.3612</v>
+        <v>13.3707</v>
       </c>
       <c r="M55" s="1">
         <v>0</v>
@@ -7234,7 +7237,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>13.3398</v>
@@ -7264,10 +7267,10 @@
         <v>692847.7551</v>
       </c>
       <c r="K56" s="1">
-        <v>528039.6580000001</v>
+        <v>528409.3058</v>
       </c>
       <c r="L56" s="1">
-        <v>13.3654</v>
+        <v>13.3747</v>
       </c>
       <c r="M56" s="1">
         <v>0.3</v>
@@ -7287,7 +7290,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>12.8469</v>
@@ -7317,10 +7320,10 @@
         <v>693096.8480999999</v>
       </c>
       <c r="K57" s="1">
-        <v>552161.3841</v>
+        <v>552531.032</v>
       </c>
       <c r="L57" s="1">
-        <v>13.3654</v>
+        <v>13.3744</v>
       </c>
       <c r="M57" s="1">
         <v>0</v>
@@ -7340,7 +7343,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>13.129</v>
@@ -7370,10 +7373,10 @@
         <v>715270.5497</v>
       </c>
       <c r="K58" s="1">
-        <v>582604.6566</v>
+        <v>582974.3045</v>
       </c>
       <c r="L58" s="1">
-        <v>13.3387</v>
+        <v>13.3472</v>
       </c>
       <c r="M58" s="1">
         <v>0</v>
@@ -7393,7 +7396,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>12.716</v>
@@ -7423,10 +7426,10 @@
         <v>707343.176</v>
       </c>
       <c r="K59" s="1">
-        <v>580300.1814999999</v>
+        <v>580679.0435</v>
       </c>
       <c r="L59" s="1">
-        <v>13.3395</v>
+        <v>13.3482</v>
       </c>
       <c r="M59" s="1">
         <v>0.3</v>
@@ -7446,7 +7449,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>12.4613</v>
@@ -7476,10 +7479,10 @@
         <v>717359.1016000001</v>
       </c>
       <c r="K60" s="1">
-        <v>608339.5675</v>
+        <v>608718.4295</v>
       </c>
       <c r="L60" s="1">
-        <v>13.3107</v>
+        <v>13.319</v>
       </c>
       <c r="M60" s="1">
         <v>0</v>
@@ -7499,7 +7502,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>12.6545</v>
@@ -7529,10 +7532,10 @@
         <v>736419.0607</v>
       </c>
       <c r="K61" s="1">
-        <v>630044.0396</v>
+        <v>630422.9017</v>
       </c>
       <c r="L61" s="1">
-        <v>13.2805</v>
+        <v>13.2885</v>
       </c>
       <c r="M61" s="1">
         <v>0</v>
@@ -7552,7 +7555,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>12.2345</v>
@@ -7582,10 +7585,10 @@
         <v>726499.8843</v>
       </c>
       <c r="K62" s="1">
-        <v>630900.7668</v>
+        <v>631279.6287999999</v>
       </c>
       <c r="L62" s="1">
-        <v>13.2796</v>
+        <v>13.2876</v>
       </c>
       <c r="M62" s="1">
         <v>0.3</v>
@@ -7690,7 +7693,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-35</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>10.8505</v>
@@ -7737,7 +7740,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-34</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>11.8576</v>
@@ -7790,7 +7793,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-33</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>12.5699</v>
@@ -7843,7 +7846,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-32</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>13.5994</v>
@@ -7896,7 +7899,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-31</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>14.6663</v>
@@ -7949,7 +7952,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-30</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>14.701</v>
@@ -8002,7 +8005,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-29</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.8109</v>
@@ -8055,7 +8058,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-28</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.9322</v>
@@ -8108,7 +8111,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-27</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>12.5846</v>
@@ -8161,7 +8164,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-26</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>12.2867</v>
@@ -8214,7 +8217,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-25</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.0645</v>
@@ -8267,7 +8270,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-24</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.8083</v>
@@ -8320,7 +8323,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-23</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.5636</v>
@@ -8373,7 +8376,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-22</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>13.1788</v>
@@ -8426,7 +8429,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-21</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>14.5668</v>
@@ -8479,7 +8482,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-20</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>13.962</v>
@@ -8509,10 +8512,10 @@
         <v>171819.8361</v>
       </c>
       <c r="K17" s="1">
-        <v>139187.4572</v>
+        <v>139205.5495</v>
       </c>
       <c r="L17" s="1">
-        <v>13.0239</v>
+        <v>13.0256</v>
       </c>
       <c r="M17" s="1">
         <v>0.5</v>
@@ -8532,7 +8535,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-19</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>12.2659</v>
@@ -8562,10 +8565,10 @@
         <v>166377.1125</v>
       </c>
       <c r="K18" s="1">
-        <v>156484.1149</v>
+        <v>156502.2072</v>
       </c>
       <c r="L18" s="1">
-        <v>13.1241</v>
+        <v>13.1256</v>
       </c>
       <c r="M18" s="1">
         <v>0</v>
@@ -8585,7 +8588,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>12.4103</v>
@@ -8615,10 +8618,10 @@
         <v>178330.3935</v>
       </c>
       <c r="K19" s="1">
-        <v>186901.7193</v>
+        <v>186919.8115</v>
       </c>
       <c r="L19" s="1">
-        <v>12.9808</v>
+        <v>12.9821</v>
       </c>
       <c r="M19" s="1">
         <v>0</v>
@@ -8638,7 +8641,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-17</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>12.3976</v>
@@ -8668,10 +8671,10 @@
         <v>188099.5339</v>
       </c>
       <c r="K20" s="1">
-        <v>196467.4364</v>
+        <v>196485.5287</v>
       </c>
       <c r="L20" s="1">
-        <v>12.9531</v>
+        <v>12.9543</v>
       </c>
       <c r="M20" s="1">
         <v>0.5</v>
@@ -8691,7 +8694,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-16</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>12.9013</v>
@@ -8721,10 +8724,10 @@
         <v>212930.2578</v>
       </c>
       <c r="K21" s="1">
-        <v>206901.7193</v>
+        <v>206919.8115</v>
       </c>
       <c r="L21" s="1">
-        <v>12.9253</v>
+        <v>12.9264</v>
       </c>
       <c r="M21" s="1">
         <v>0</v>
@@ -8744,7 +8747,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-15</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>13.3527</v>
@@ -8774,10 +8777,10 @@
         <v>230255.8245</v>
       </c>
       <c r="K22" s="1">
-        <v>210602.822</v>
+        <v>210620.9143</v>
       </c>
       <c r="L22" s="1">
-        <v>12.9253</v>
+        <v>12.9264</v>
       </c>
       <c r="M22" s="1">
         <v>0</v>
@@ -8797,7 +8800,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-14</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>13.8804</v>
@@ -8827,10 +8830,10 @@
         <v>248967.8155</v>
       </c>
       <c r="K23" s="1">
-        <v>214326.2982</v>
+        <v>214344.3904</v>
       </c>
       <c r="L23" s="1">
-        <v>12.9329</v>
+        <v>12.934</v>
       </c>
       <c r="M23" s="1">
         <v>0.5</v>
@@ -8850,7 +8853,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>-13</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>14.6268</v>
@@ -8880,10 +8883,10 @@
         <v>278889.8141</v>
       </c>
       <c r="K24" s="1">
-        <v>216713.1606</v>
+        <v>216731.2529</v>
       </c>
       <c r="L24" s="1">
-        <v>12.9429</v>
+        <v>12.944</v>
       </c>
       <c r="M24" s="1">
         <v>0</v>
@@ -8903,7 +8906,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>-12</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>15.3636</v>
@@ -8933,10 +8936,10 @@
         <v>301135.2788</v>
       </c>
       <c r="K25" s="1">
-        <v>215393.5297</v>
+        <v>215416.8893</v>
       </c>
       <c r="L25" s="1">
-        <v>12.9337</v>
+        <v>12.9351</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
@@ -8956,7 +8959,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>-11</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>13.8711</v>
@@ -8986,10 +8989,10 @@
         <v>286429.6475</v>
       </c>
       <c r="K26" s="1">
-        <v>214359.4541</v>
+        <v>214386.9448</v>
       </c>
       <c r="L26" s="1">
-        <v>12.9237</v>
+        <v>12.9254</v>
       </c>
       <c r="M26" s="1">
         <v>0.5</v>
@@ -9009,7 +9012,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>-10</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>14.1252</v>
@@ -9039,10 +9042,10 @@
         <v>308614.7642</v>
       </c>
       <c r="K27" s="1">
-        <v>250480.9206</v>
+        <v>250508.4112</v>
       </c>
       <c r="L27" s="1">
-        <v>13.0558</v>
+        <v>13.0572</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -9062,7 +9065,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>-9</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>14.1934</v>
@@ -9092,10 +9095,10 @@
         <v>319924.6433</v>
       </c>
       <c r="K28" s="1">
-        <v>256969.3607</v>
+        <v>256996.8514</v>
       </c>
       <c r="L28" s="1">
-        <v>13.0814</v>
+        <v>13.0828</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -9115,7 +9118,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>-8</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>14.1176</v>
@@ -9145,10 +9148,10 @@
         <v>328345.6435</v>
       </c>
       <c r="K29" s="1">
-        <v>267058.4702</v>
+        <v>267085.9609</v>
       </c>
       <c r="L29" s="1">
-        <v>13.1212</v>
+        <v>13.1225</v>
       </c>
       <c r="M29" s="1">
         <v>0.5</v>
@@ -9168,7 +9171,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>-7</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>15.3311</v>
@@ -9198,10 +9201,10 @@
         <v>373215.9948</v>
       </c>
       <c r="K30" s="1">
-        <v>280090.746</v>
+        <v>280118.2367</v>
       </c>
       <c r="L30" s="1">
-        <v>13.1655</v>
+        <v>13.1668</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -9221,7 +9224,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>-6</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>15.3637</v>
@@ -9251,10 +9254,10 @@
         <v>383879.1508</v>
       </c>
       <c r="K31" s="1">
-        <v>265768.7847</v>
+        <v>265853.5193</v>
       </c>
       <c r="L31" s="1">
-        <v>13.0649</v>
+        <v>13.0691</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -9274,7 +9277,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>-5</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>14.6447</v>
@@ -9304,10 +9307,10 @@
         <v>378728.083</v>
       </c>
       <c r="K32" s="1">
-        <v>276705.54</v>
+        <v>276790.2746</v>
       </c>
       <c r="L32" s="1">
-        <v>13.1435</v>
+        <v>13.1475</v>
       </c>
       <c r="M32" s="1">
         <v>1</v>
@@ -9327,7 +9330,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>-4</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>15.486</v>
@@ -9357,10 +9360,10 @@
         <v>426779.1642</v>
       </c>
       <c r="K33" s="1">
-        <v>303534.0556</v>
+        <v>303618.7901</v>
       </c>
       <c r="L33" s="1">
-        <v>13.2658</v>
+        <v>13.2695</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -9380,7 +9383,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>-3</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>16.1958</v>
@@ -9410,10 +9413,10 @@
         <v>452642.4764</v>
       </c>
       <c r="K34" s="1">
-        <v>295965.0419</v>
+        <v>296080.0193</v>
       </c>
       <c r="L34" s="1">
-        <v>13.2168</v>
+        <v>13.2219</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -9433,7 +9436,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>-2</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>16.4264</v>
@@ -9463,10 +9466,10 @@
         <v>467738.5204</v>
       </c>
       <c r="K35" s="1">
-        <v>291815.5919</v>
+        <v>291947.1383</v>
       </c>
       <c r="L35" s="1">
-        <v>13.182</v>
+        <v>13.1879</v>
       </c>
       <c r="M35" s="1">
         <v>0.75</v>
@@ -9486,7 +9489,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>-1</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>17.107</v>
@@ -9516,10 +9519,10 @@
         <v>507967.5473</v>
       </c>
       <c r="K36" s="1">
-        <v>298535.4547</v>
+        <v>298667.0011</v>
       </c>
       <c r="L36" s="1">
-        <v>13.2413</v>
+        <v>13.2472</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -9539,7 +9542,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>16.8894</v>
@@ -9569,10 +9572,10 @@
         <v>513114.6959</v>
       </c>
       <c r="K37" s="1">
-        <v>295056.5182</v>
+        <v>295201.967</v>
       </c>
       <c r="L37" s="1">
-        <v>13.2059</v>
+        <v>13.2124</v>
       </c>
       <c r="M37" s="1">
         <v>1</v>
@@ -9592,7 +9595,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>16.4004</v>
@@ -9622,10 +9625,10 @@
         <v>531767.4677</v>
       </c>
       <c r="K38" s="1">
-        <v>311883.8555</v>
+        <v>312029.3044</v>
       </c>
       <c r="L38" s="1">
-        <v>13.3643</v>
+        <v>13.3705</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -9645,7 +9648,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>15.3877</v>
@@ -9675,10 +9678,10 @@
         <v>516644.7064</v>
       </c>
       <c r="K39" s="1">
-        <v>335332.921</v>
+        <v>335478.3699</v>
       </c>
       <c r="L39" s="1">
-        <v>13.5411</v>
+        <v>13.547</v>
       </c>
       <c r="M39" s="1">
         <v>0</v>
@@ -9698,7 +9701,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>14.6367</v>
@@ -9728,10 +9731,10 @@
         <v>506126.9052</v>
       </c>
       <c r="K40" s="1">
-        <v>372537.2113</v>
+        <v>372682.6602</v>
       </c>
       <c r="L40" s="1">
-        <v>13.7078</v>
+        <v>13.7132</v>
       </c>
       <c r="M40" s="1">
         <v>0</v>
@@ -9751,7 +9754,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>13.0061</v>
@@ -9781,10 +9784,10 @@
         <v>468155.898</v>
       </c>
       <c r="K41" s="1">
-        <v>405123.3487</v>
+        <v>405268.7976</v>
       </c>
       <c r="L41" s="1">
-        <v>13.7802</v>
+        <v>13.7852</v>
       </c>
       <c r="M41" s="1">
         <v>0.5</v>
@@ -9804,7 +9807,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>13.835</v>
@@ -9834,10 +9837,10 @@
         <v>519286.3066</v>
       </c>
       <c r="K42" s="1">
-        <v>465352.142</v>
+        <v>465497.5909</v>
       </c>
       <c r="L42" s="1">
-        <v>13.6786</v>
+        <v>13.6829</v>
       </c>
       <c r="M42" s="1">
         <v>0</v>
@@ -9857,7 +9860,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>14.4216</v>
@@ -9887,10 +9890,10 @@
         <v>548529.5911</v>
       </c>
       <c r="K43" s="1">
-        <v>449354.4596</v>
+        <v>449563.8406</v>
       </c>
       <c r="L43" s="1">
-        <v>13.6721</v>
+        <v>13.6785</v>
       </c>
       <c r="M43" s="1">
         <v>0</v>
@@ -9910,7 +9913,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>13.2404</v>
@@ -9940,10 +9943,10 @@
         <v>520354.6357</v>
       </c>
       <c r="K44" s="1">
-        <v>442352.1976</v>
+        <v>442589.5382</v>
       </c>
       <c r="L44" s="1">
-        <v>13.6605</v>
+        <v>13.6678</v>
       </c>
       <c r="M44" s="1">
         <v>0.4</v>
@@ -9963,7 +9966,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>12.382</v>
@@ -9993,10 +9996,10 @@
         <v>510793.5797</v>
       </c>
       <c r="K45" s="1">
-        <v>493060.053</v>
+        <v>493297.3936</v>
       </c>
       <c r="L45" s="1">
-        <v>13.6189</v>
+        <v>13.6255</v>
       </c>
       <c r="M45" s="1">
         <v>0</v>
@@ -10016,7 +10019,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>11.9583</v>
@@ -10046,10 +10049,10 @@
         <v>503827.1089</v>
       </c>
       <c r="K46" s="1">
-        <v>536642.2113</v>
+        <v>536879.5519</v>
       </c>
       <c r="L46" s="1">
-        <v>13.5117</v>
+        <v>13.5177</v>
       </c>
       <c r="M46" s="1">
         <v>0</v>
@@ -10069,7 +10072,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>12.2036</v>
@@ -10099,10 +10102,10 @@
         <v>524032.2857</v>
       </c>
       <c r="K47" s="1">
-        <v>566005.7703</v>
+        <v>566243.1109</v>
       </c>
       <c r="L47" s="1">
-        <v>13.4229</v>
+        <v>13.4285</v>
       </c>
       <c r="M47" s="1">
         <v>0.4</v>
@@ -10122,7 +10125,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>12.9136</v>
@@ -10152,10 +10155,10 @@
         <v>579211.1033</v>
       </c>
       <c r="K48" s="1">
-        <v>568208.2266000001</v>
+        <v>568445.5672</v>
       </c>
       <c r="L48" s="1">
-        <v>13.4178</v>
+        <v>13.4234</v>
       </c>
       <c r="M48" s="1">
         <v>0</v>
@@ -10175,7 +10178,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>13.4338</v>
@@ -10205,10 +10208,10 @@
         <v>610491.6592</v>
       </c>
       <c r="K49" s="1">
-        <v>550709.7095999999</v>
+        <v>551016.9658</v>
       </c>
       <c r="L49" s="1">
-        <v>13.4335</v>
+        <v>13.441</v>
       </c>
       <c r="M49" s="1">
         <v>0</v>
@@ -10228,7 +10231,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>12.9657</v>
@@ -10258,10 +10261,10 @@
         <v>601643.8291</v>
       </c>
       <c r="K50" s="1">
-        <v>542036.1702000001</v>
+        <v>542378.093</v>
       </c>
       <c r="L50" s="1">
-        <v>13.4331</v>
+        <v>13.4416</v>
       </c>
       <c r="M50" s="1">
         <v>0.3</v>
@@ -10281,7 +10284,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>13.3568</v>
@@ -10311,10 +10314,10 @@
         <v>639112.5848</v>
       </c>
       <c r="K51" s="1">
-        <v>573715.4462</v>
+        <v>574057.3689999999</v>
       </c>
       <c r="L51" s="1">
-        <v>13.408</v>
+        <v>13.416</v>
       </c>
       <c r="M51" s="1">
         <v>0</v>
@@ -10334,7 +10337,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>13.2487</v>
@@ -10364,10 +10367,10 @@
         <v>644527.463</v>
       </c>
       <c r="K52" s="1">
-        <v>569767.4701</v>
+        <v>570125.1747</v>
       </c>
       <c r="L52" s="1">
-        <v>13.4081</v>
+        <v>13.4165</v>
       </c>
       <c r="M52" s="1">
         <v>0</v>
@@ -10387,7 +10390,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>13.3991</v>
@@ -10417,10 +10420,10 @@
         <v>661033.7472</v>
       </c>
       <c r="K53" s="1">
-        <v>587254.666</v>
+        <v>587612.3706</v>
       </c>
       <c r="L53" s="1">
-        <v>13.4041</v>
+        <v>13.4123</v>
       </c>
       <c r="M53" s="1">
         <v>0.4</v>
@@ -10440,7 +10443,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>13.5985</v>
@@ -10470,10 +10473,10 @@
         <v>695593.0757</v>
       </c>
       <c r="K54" s="1">
-        <v>593600.3189</v>
+        <v>593958.0235</v>
       </c>
       <c r="L54" s="1">
-        <v>13.4044</v>
+        <v>13.4124</v>
       </c>
       <c r="M54" s="1">
         <v>0</v>
@@ -10493,7 +10496,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>13.6955</v>
@@ -10523,10 +10526,10 @@
         <v>709892.7373</v>
       </c>
       <c r="K55" s="1">
-        <v>597765.3125</v>
+        <v>598123.0171000001</v>
       </c>
       <c r="L55" s="1">
-        <v>13.4059</v>
+        <v>13.4139</v>
       </c>
       <c r="M55" s="1">
         <v>0</v>
@@ -10546,7 +10549,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>13.3398</v>
@@ -10576,10 +10579,10 @@
         <v>703802.2397</v>
       </c>
       <c r="K56" s="1">
-        <v>606509.6474</v>
+        <v>606867.352</v>
       </c>
       <c r="L56" s="1">
-        <v>13.4103</v>
+        <v>13.4183</v>
       </c>
       <c r="M56" s="1">
         <v>0.3</v>
@@ -10599,7 +10602,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>12.8469</v>
@@ -10629,10 +10632,10 @@
         <v>702572.5452000001</v>
       </c>
       <c r="K57" s="1">
-        <v>635772.9693999999</v>
+        <v>636130.674</v>
       </c>
       <c r="L57" s="1">
-        <v>13.4083</v>
+        <v>13.4159</v>
       </c>
       <c r="M57" s="1">
         <v>0</v>
@@ -10652,7 +10655,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>13.129</v>
@@ -10682,10 +10685,10 @@
         <v>726574.9367</v>
       </c>
       <c r="K58" s="1">
-        <v>672399.5782</v>
+        <v>672757.2828</v>
       </c>
       <c r="L58" s="1">
-        <v>13.378</v>
+        <v>13.3851</v>
       </c>
       <c r="M58" s="1">
         <v>0</v>
@@ -10705,7 +10708,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>12.716</v>
@@ -10735,10 +10738,10 @@
         <v>715891.273</v>
       </c>
       <c r="K59" s="1">
-        <v>671469.2879999999</v>
+        <v>671830.7123</v>
       </c>
       <c r="L59" s="1">
-        <v>13.3783</v>
+        <v>13.3855</v>
       </c>
       <c r="M59" s="1">
         <v>0.3</v>
@@ -10758,7 +10761,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>12.4613</v>
@@ -10788,10 +10791,10 @@
         <v>725867.5577</v>
       </c>
       <c r="K60" s="1">
-        <v>705577.388</v>
+        <v>705938.8122</v>
       </c>
       <c r="L60" s="1">
-        <v>13.3461</v>
+        <v>13.3529</v>
       </c>
       <c r="M60" s="1">
         <v>0</v>
@@ -10811,7 +10814,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>12.6545</v>
@@ -10841,10 +10844,10 @@
         <v>746368.3435</v>
       </c>
       <c r="K61" s="1">
-        <v>732478.5151</v>
+        <v>732839.9393</v>
       </c>
       <c r="L61" s="1">
-        <v>13.3124</v>
+        <v>13.319</v>
       </c>
       <c r="M61" s="1">
         <v>0</v>
@@ -10864,7 +10867,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>12.2345</v>
@@ -10894,10 +10897,10 @@
         <v>733198.3413</v>
       </c>
       <c r="K62" s="1">
-        <v>735302.9099</v>
+        <v>735664.3342</v>
       </c>
       <c r="L62" s="1">
-        <v>13.3099</v>
+        <v>13.3164</v>
       </c>
       <c r="M62" s="1">
         <v>0.3</v>
@@ -11002,7 +11005,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-35</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>10.8505</v>
@@ -11049,7 +11052,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-34</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>11.8576</v>
@@ -11102,7 +11105,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-33</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>12.5699</v>
@@ -11155,7 +11158,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-32</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>13.5994</v>
@@ -11208,7 +11211,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-31</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>14.6663</v>
@@ -11261,7 +11264,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-30</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>14.701</v>
@@ -11314,7 +11317,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-29</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.8109</v>
@@ -11367,7 +11370,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-28</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.9322</v>
@@ -11420,7 +11423,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-27</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>12.5846</v>
@@ -11473,7 +11476,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-26</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>12.2867</v>
@@ -11526,7 +11529,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-25</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.0645</v>
@@ -11579,7 +11582,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-24</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.8083</v>
@@ -11632,7 +11635,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-23</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.5636</v>
@@ -11685,7 +11688,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-22</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>13.1788</v>
@@ -11738,7 +11741,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-21</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>14.5668</v>
@@ -11791,7 +11794,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-20</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>13.962</v>
@@ -11821,10 +11824,10 @@
         <v>172084.8123</v>
       </c>
       <c r="K17" s="1">
-        <v>144456.9861</v>
+        <v>144474.0253</v>
       </c>
       <c r="L17" s="1">
-        <v>13.0464</v>
+        <v>13.048</v>
       </c>
       <c r="M17" s="1">
         <v>0.5</v>
@@ -11844,7 +11847,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-19</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>12.2659</v>
@@ -11874,10 +11877,10 @@
         <v>166029.3841</v>
       </c>
       <c r="K18" s="1">
-        <v>162823.435</v>
+        <v>162840.4742</v>
       </c>
       <c r="L18" s="1">
-        <v>13.1465</v>
+        <v>13.1478</v>
       </c>
       <c r="M18" s="1">
         <v>0</v>
@@ -11897,7 +11900,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>12.4103</v>
@@ -11927,10 +11930,10 @@
         <v>178002.8325</v>
       </c>
       <c r="K19" s="1">
-        <v>187238.8488</v>
+        <v>187255.8879</v>
       </c>
       <c r="L19" s="1">
-        <v>13.0281</v>
+        <v>13.0293</v>
       </c>
       <c r="M19" s="1">
         <v>0</v>
@@ -11950,7 +11953,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-17</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>12.3976</v>
@@ -11980,10 +11983,10 @@
         <v>187770.1295</v>
       </c>
       <c r="K20" s="1">
-        <v>197238.8488</v>
+        <v>197255.8879</v>
       </c>
       <c r="L20" s="1">
-        <v>12.9967</v>
+        <v>12.9978</v>
       </c>
       <c r="M20" s="1">
         <v>0.5</v>
@@ -12003,7 +12006,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-16</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>12.9013</v>
@@ -12033,10 +12036,10 @@
         <v>212593.0889</v>
       </c>
       <c r="K21" s="1">
-        <v>207238.8488</v>
+        <v>207255.8879</v>
       </c>
       <c r="L21" s="1">
-        <v>12.9678</v>
+        <v>12.9689</v>
       </c>
       <c r="M21" s="1">
         <v>0</v>
@@ -12056,7 +12059,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-15</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>13.3527</v>
@@ -12086,10 +12089,10 @@
         <v>230239.3768</v>
       </c>
       <c r="K22" s="1">
-        <v>221722.9452</v>
+        <v>221739.9843</v>
       </c>
       <c r="L22" s="1">
-        <v>12.9651</v>
+        <v>12.9661</v>
       </c>
       <c r="M22" s="1">
         <v>0</v>
@@ -12109,7 +12112,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-14</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>13.8804</v>
@@ -12139,10 +12142,10 @@
         <v>249404.6904</v>
       </c>
       <c r="K23" s="1">
-        <v>226238.688</v>
+        <v>226255.7272</v>
       </c>
       <c r="L23" s="1">
-        <v>12.9732</v>
+        <v>12.9741</v>
       </c>
       <c r="M23" s="1">
         <v>0.5</v>
@@ -12162,7 +12165,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>-13</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>14.6268</v>
@@ -12192,10 +12195,10 @@
         <v>280400.575</v>
       </c>
       <c r="K24" s="1">
-        <v>229391.8421</v>
+        <v>229408.8813</v>
       </c>
       <c r="L24" s="1">
-        <v>12.9852</v>
+        <v>12.9861</v>
       </c>
       <c r="M24" s="1">
         <v>0</v>
@@ -12215,7 +12218,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>-12</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>15.3636</v>
@@ -12245,10 +12248,10 @@
         <v>303354.209</v>
       </c>
       <c r="K25" s="1">
-        <v>228675.1945</v>
+        <v>228695.0942</v>
       </c>
       <c r="L25" s="1">
-        <v>12.9805</v>
+        <v>12.9816</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
@@ -12268,7 +12271,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>-11</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>13.8711</v>
@@ -12298,10 +12301,10 @@
         <v>287151.0929</v>
       </c>
       <c r="K26" s="1">
-        <v>228291.6585</v>
+        <v>228313.0904</v>
       </c>
       <c r="L26" s="1">
-        <v>12.9771</v>
+        <v>12.9783</v>
       </c>
       <c r="M26" s="1">
         <v>0.5</v>
@@ -12321,7 +12324,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>-10</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>14.1252</v>
@@ -12351,10 +12354,10 @@
         <v>310085.413</v>
       </c>
       <c r="K27" s="1">
-        <v>267348.0781</v>
+        <v>267369.5101</v>
       </c>
       <c r="L27" s="1">
-        <v>13.1041</v>
+        <v>13.1051</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -12374,7 +12377,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>-9</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>14.1934</v>
@@ -12404,10 +12407,10 @@
         <v>321478.9849</v>
       </c>
       <c r="K28" s="1">
-        <v>275029.1325</v>
+        <v>275050.5644</v>
       </c>
       <c r="L28" s="1">
-        <v>13.1313</v>
+        <v>13.1323</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -12427,7 +12430,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>-8</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>14.1176</v>
@@ -12457,10 +12460,10 @@
         <v>329787.8165</v>
       </c>
       <c r="K29" s="1">
-        <v>286603.6887</v>
+        <v>286625.1206</v>
       </c>
       <c r="L29" s="1">
-        <v>13.172</v>
+        <v>13.173</v>
       </c>
       <c r="M29" s="1">
         <v>0.5</v>
@@ -12480,7 +12483,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>-7</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>15.3311</v>
@@ -12510,10 +12513,10 @@
         <v>377135.4009</v>
       </c>
       <c r="K30" s="1">
-        <v>301389.7756</v>
+        <v>301411.2075</v>
       </c>
       <c r="L30" s="1">
-        <v>13.2167</v>
+        <v>13.2176</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -12533,7 +12536,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>-6</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>15.3637</v>
@@ -12563,10 +12566,10 @@
         <v>387848.116</v>
       </c>
       <c r="K31" s="1">
-        <v>286929.5638</v>
+        <v>287008.7921</v>
       </c>
       <c r="L31" s="1">
-        <v>13.1243</v>
+        <v>13.1279</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -12586,7 +12589,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>-5</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>14.6447</v>
@@ -12616,10 +12619,10 @@
         <v>381517.7651</v>
       </c>
       <c r="K32" s="1">
-        <v>299612.5551</v>
+        <v>299691.7835</v>
       </c>
       <c r="L32" s="1">
-        <v>13.2068</v>
+        <v>13.2103</v>
       </c>
       <c r="M32" s="1">
         <v>1</v>
@@ -12639,7 +12642,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>-4</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>15.486</v>
@@ -12669,10 +12672,10 @@
         <v>432573.0198</v>
       </c>
       <c r="K33" s="1">
-        <v>329490.0419</v>
+        <v>329569.2703</v>
       </c>
       <c r="L33" s="1">
-        <v>13.3276</v>
+        <v>13.3308</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -12692,7 +12695,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>-3</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>16.1958</v>
@@ -12722,10 +12725,10 @@
         <v>459758.9128</v>
       </c>
       <c r="K34" s="1">
-        <v>322317.7519</v>
+        <v>322425.638</v>
       </c>
       <c r="L34" s="1">
-        <v>13.2859</v>
+        <v>13.2903</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -12745,7 +12748,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>-2</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>16.4264</v>
@@ -12775,10 +12778,10 @@
         <v>475294.6576</v>
       </c>
       <c r="K35" s="1">
-        <v>318867.4886</v>
+        <v>318989.1517</v>
       </c>
       <c r="L35" s="1">
-        <v>13.2599</v>
+        <v>13.2649</v>
       </c>
       <c r="M35" s="1">
         <v>0.75</v>
@@ -12798,7 +12801,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>-1</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>17.107</v>
@@ -12828,10 +12831,10 @@
         <v>518172.3693</v>
       </c>
       <c r="K36" s="1">
-        <v>327252.1133</v>
+        <v>327373.7764</v>
       </c>
       <c r="L36" s="1">
-        <v>13.3262</v>
+        <v>13.3312</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -12851,7 +12854,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>16.8894</v>
@@ -12881,10 +12884,10 @@
         <v>522872.3529</v>
       </c>
       <c r="K37" s="1">
-        <v>324588.1499</v>
+        <v>324720.4587</v>
       </c>
       <c r="L37" s="1">
-        <v>13.3019</v>
+        <v>13.3074</v>
       </c>
       <c r="M37" s="1">
         <v>1</v>
@@ -12904,7 +12907,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>16.4004</v>
@@ -12934,10 +12937,10 @@
         <v>542284.1446</v>
       </c>
       <c r="K38" s="1">
-        <v>344132.263</v>
+        <v>344264.5719</v>
       </c>
       <c r="L38" s="1">
-        <v>13.4656</v>
+        <v>13.4708</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -12957,7 +12960,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>15.3877</v>
@@ -12987,10 +12990,10 @@
         <v>524693.1609</v>
       </c>
       <c r="K39" s="1">
-        <v>371018.9761</v>
+        <v>371151.2849</v>
       </c>
       <c r="L39" s="1">
-        <v>13.6442</v>
+        <v>13.649</v>
       </c>
       <c r="M39" s="1">
         <v>0</v>
@@ -13010,7 +13013,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>14.6367</v>
@@ -13040,10 +13043,10 @@
         <v>512097.532</v>
       </c>
       <c r="K40" s="1">
-        <v>413121.4397</v>
+        <v>413253.7486</v>
       </c>
       <c r="L40" s="1">
-        <v>13.8061</v>
+        <v>13.8105</v>
       </c>
       <c r="M40" s="1">
         <v>0</v>
@@ -13063,7 +13066,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>13.0061</v>
@@ -13093,10 +13096,10 @@
         <v>469130.6051</v>
       </c>
       <c r="K41" s="1">
-        <v>450292.6559</v>
+        <v>450424.9647</v>
       </c>
       <c r="L41" s="1">
-        <v>13.8732</v>
+        <v>13.8773</v>
       </c>
       <c r="M41" s="1">
         <v>0.5</v>
@@ -13116,7 +13119,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>13.835</v>
@@ -13146,10 +13149,10 @@
         <v>524024.846</v>
       </c>
       <c r="K42" s="1">
-        <v>508119.1567</v>
+        <v>508251.4656</v>
       </c>
       <c r="L42" s="1">
-        <v>13.7721</v>
+        <v>13.7757</v>
       </c>
       <c r="M42" s="1">
         <v>0</v>
@@ -13169,7 +13172,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>14.4216</v>
@@ -13199,10 +13202,10 @@
         <v>555386.5179</v>
       </c>
       <c r="K43" s="1">
-        <v>502429.9075</v>
+        <v>502584.9524</v>
       </c>
       <c r="L43" s="1">
-        <v>13.7711</v>
+        <v>13.7753</v>
       </c>
       <c r="M43" s="1">
         <v>0</v>
@@ -13222,7 +13225,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>13.2404</v>
@@ -13252,10 +13255,10 @@
         <v>522892.9512</v>
       </c>
       <c r="K44" s="1">
-        <v>496080.406</v>
+        <v>496260.8042</v>
       </c>
       <c r="L44" s="1">
-        <v>13.7628</v>
+        <v>13.7678</v>
       </c>
       <c r="M44" s="1">
         <v>0.4</v>
@@ -13275,7 +13278,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>12.382</v>
@@ -13305,10 +13308,10 @@
         <v>511108.5687</v>
       </c>
       <c r="K45" s="1">
-        <v>552677.0293000001</v>
+        <v>552857.4275</v>
       </c>
       <c r="L45" s="1">
-        <v>13.7103</v>
+        <v>13.7148</v>
       </c>
       <c r="M45" s="1">
         <v>0</v>
@@ -13328,7 +13331,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>11.9583</v>
@@ -13358,10 +13361,10 @@
         <v>503190.1946</v>
       </c>
       <c r="K46" s="1">
-        <v>575653.2648</v>
+        <v>575833.6629999999</v>
       </c>
       <c r="L46" s="1">
-        <v>13.653</v>
+        <v>13.6573</v>
       </c>
       <c r="M46" s="1">
         <v>0</v>
@@ -13381,7 +13384,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>12.2036</v>
@@ -13411,10 +13414,10 @@
         <v>523676.0245</v>
       </c>
       <c r="K47" s="1">
-        <v>585653.2648</v>
+        <v>585833.6629999999</v>
       </c>
       <c r="L47" s="1">
-        <v>13.6206</v>
+        <v>13.6248</v>
       </c>
       <c r="M47" s="1">
         <v>0.4</v>
@@ -13434,7 +13437,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>12.9136</v>
@@ -13464,10 +13467,10 @@
         <v>580162.7247</v>
       </c>
       <c r="K48" s="1">
-        <v>595653.2648</v>
+        <v>595833.6629999999</v>
       </c>
       <c r="L48" s="1">
-        <v>13.5946</v>
+        <v>13.5987</v>
       </c>
       <c r="M48" s="1">
         <v>0</v>
@@ -13487,7 +13490,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>13.4338</v>
@@ -13517,10 +13520,10 @@
         <v>613827.6339</v>
       </c>
       <c r="K49" s="1">
-        <v>621132.3906</v>
+        <v>621312.7888</v>
       </c>
       <c r="L49" s="1">
-        <v>13.5664</v>
+        <v>13.5704</v>
       </c>
       <c r="M49" s="1">
         <v>0</v>
@@ -13540,7 +13543,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>12.9657</v>
@@ -13570,10 +13573,10 @@
         <v>602497.5128</v>
       </c>
       <c r="K50" s="1">
-        <v>619524.4076</v>
+        <v>619711.2326</v>
       </c>
       <c r="L50" s="1">
-        <v>13.5667</v>
+        <v>13.5708</v>
       </c>
       <c r="M50" s="1">
         <v>0.3</v>
@@ -13593,7 +13596,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>13.3568</v>
@@ -13623,10 +13626,10 @@
         <v>643212.7761</v>
       </c>
       <c r="K51" s="1">
-        <v>641125.9638</v>
+        <v>641312.7888</v>
       </c>
       <c r="L51" s="1">
-        <v>13.5465</v>
+        <v>13.5505</v>
       </c>
       <c r="M51" s="1">
         <v>0</v>
@@ -13646,7 +13649,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>13.2487</v>
@@ -13676,10 +13679,10 @@
         <v>647939.6481</v>
       </c>
       <c r="K52" s="1">
-        <v>654929.7389</v>
+        <v>655116.5639</v>
       </c>
       <c r="L52" s="1">
-        <v>13.543</v>
+        <v>13.5469</v>
       </c>
       <c r="M52" s="1">
         <v>0</v>
@@ -13699,7 +13702,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>13.3991</v>
@@ -13729,10 +13732,10 @@
         <v>665333.8558</v>
       </c>
       <c r="K53" s="1">
-        <v>673455.5135999999</v>
+        <v>673642.3386</v>
       </c>
       <c r="L53" s="1">
-        <v>13.5355</v>
+        <v>13.5393</v>
       </c>
       <c r="M53" s="1">
         <v>0.4</v>
@@ -13752,7 +13755,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>13.5985</v>
@@ -13782,10 +13785,10 @@
         <v>703254.9929</v>
       </c>
       <c r="K54" s="1">
-        <v>683455.5135999999</v>
+        <v>683642.3386</v>
       </c>
       <c r="L54" s="1">
-        <v>13.5339</v>
+        <v>13.5376</v>
       </c>
       <c r="M54" s="1">
         <v>0</v>
@@ -13805,7 +13808,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>13.6955</v>
@@ -13835,10 +13838,10 @@
         <v>718171.8415</v>
       </c>
       <c r="K55" s="1">
-        <v>692614.5658</v>
+        <v>692801.3908000001</v>
       </c>
       <c r="L55" s="1">
-        <v>13.5351</v>
+        <v>13.5388</v>
       </c>
       <c r="M55" s="1">
         <v>0</v>
@@ -13858,7 +13861,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>13.3398</v>
@@ -13888,10 +13891,10 @@
         <v>709646.3817</v>
       </c>
       <c r="K56" s="1">
-        <v>704653.8851</v>
+        <v>704840.7101</v>
       </c>
       <c r="L56" s="1">
-        <v>13.5383</v>
+        <v>13.5419</v>
       </c>
       <c r="M56" s="1">
         <v>0.3</v>
@@ -13911,7 +13914,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>12.8469</v>
@@ -13941,10 +13944,10 @@
         <v>707006.9201</v>
       </c>
       <c r="K57" s="1">
-        <v>731367.1808</v>
+        <v>731554.0058</v>
       </c>
       <c r="L57" s="1">
-        <v>13.5319</v>
+        <v>13.5354</v>
       </c>
       <c r="M57" s="1">
         <v>0</v>
@@ -13964,7 +13967,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>13.129</v>
@@ -13994,10 +13997,10 @@
         <v>732651.2445</v>
       </c>
       <c r="K58" s="1">
-        <v>755420.4016</v>
+        <v>755607.2266000001</v>
       </c>
       <c r="L58" s="1">
-        <v>13.5099</v>
+        <v>13.5132</v>
       </c>
       <c r="M58" s="1">
         <v>0</v>
@@ -14017,7 +14020,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>12.716</v>
@@ -14047,10 +14050,10 @@
         <v>719254.9981</v>
       </c>
       <c r="K59" s="1">
-        <v>765420.4016</v>
+        <v>765607.2266000001</v>
       </c>
       <c r="L59" s="1">
-        <v>13.5051</v>
+        <v>13.5084</v>
       </c>
       <c r="M59" s="1">
         <v>0.3</v>
@@ -14070,7 +14073,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>12.4613</v>
@@ -14100,10 +14103,10 @@
         <v>729911.0284</v>
       </c>
       <c r="K60" s="1">
-        <v>775420.4016</v>
+        <v>775607.2266000001</v>
       </c>
       <c r="L60" s="1">
-        <v>13.4947</v>
+        <v>13.498</v>
       </c>
       <c r="M60" s="1">
         <v>0</v>
@@ -14123,7 +14126,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>12.6545</v>
@@ -14153,10 +14156,10 @@
         <v>751279.0929</v>
       </c>
       <c r="K61" s="1">
-        <v>800722.9759</v>
+        <v>800909.8009</v>
       </c>
       <c r="L61" s="1">
-        <v>13.4604</v>
+        <v>13.4635</v>
       </c>
       <c r="M61" s="1">
         <v>0</v>
@@ -14176,7 +14179,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>12.2345</v>
@@ -14206,10 +14209,10 @@
         <v>735971.3611</v>
       </c>
       <c r="K62" s="1">
-        <v>810722.9759</v>
+        <v>810909.8009</v>
       </c>
       <c r="L62" s="1">
-        <v>13.4502</v>
+        <v>13.4533</v>
       </c>
       <c r="M62" s="1">
         <v>0.3</v>
@@ -14314,7 +14317,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-35</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>10.8505</v>
@@ -14361,7 +14364,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-34</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>11.8576</v>
@@ -14414,7 +14417,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-33</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>12.5699</v>
@@ -14467,7 +14470,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-32</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>13.5994</v>
@@ -14520,7 +14523,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-31</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>14.6663</v>
@@ -14573,7 +14576,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-30</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>14.701</v>
@@ -14626,7 +14629,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-29</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.8109</v>
@@ -14679,7 +14682,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-28</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.9322</v>
@@ -14732,7 +14735,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-27</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>12.5846</v>
@@ -14785,7 +14788,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-26</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>12.2867</v>
@@ -14838,7 +14841,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-25</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.0645</v>
@@ -14891,7 +14894,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-24</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.8083</v>
@@ -14944,7 +14947,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-23</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.5636</v>
@@ -14997,7 +15000,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-22</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>13.1788</v>
@@ -15050,7 +15053,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-21</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>14.5668</v>
@@ -15103,7 +15106,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-20</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>13.962</v>
@@ -15133,10 +15136,10 @@
         <v>172199.9518</v>
       </c>
       <c r="K17" s="1">
-        <v>150126.102</v>
+        <v>150135.3454</v>
       </c>
       <c r="L17" s="1">
-        <v>13.0828</v>
+        <v>13.0836</v>
       </c>
       <c r="M17" s="1">
         <v>0.5</v>
@@ -15156,7 +15159,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-19</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>12.2659</v>
@@ -15186,10 +15189,10 @@
         <v>165501.7415</v>
       </c>
       <c r="K18" s="1">
-        <v>169632.7282</v>
+        <v>169641.9716</v>
       </c>
       <c r="L18" s="1">
-        <v>13.1811</v>
+        <v>13.1818</v>
       </c>
       <c r="M18" s="1">
         <v>0</v>
@@ -15209,7 +15212,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>12.4103</v>
@@ -15239,10 +15242,10 @@
         <v>177495.063</v>
       </c>
       <c r="K19" s="1">
-        <v>187594.828</v>
+        <v>187604.0714</v>
       </c>
       <c r="L19" s="1">
-        <v>13.0903</v>
+        <v>13.0909</v>
       </c>
       <c r="M19" s="1">
         <v>0</v>
@@ -15262,7 +15265,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-17</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>12.3976</v>
@@ -15292,10 +15295,10 @@
         <v>187262.8807</v>
       </c>
       <c r="K20" s="1">
-        <v>197594.828</v>
+        <v>197604.0714</v>
       </c>
       <c r="L20" s="1">
-        <v>13.0555</v>
+        <v>13.0561</v>
       </c>
       <c r="M20" s="1">
         <v>0.5</v>
@@ -15315,7 +15318,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-16</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>12.9013</v>
@@ -15345,10 +15348,10 @@
         <v>212046.7821</v>
       </c>
       <c r="K21" s="1">
-        <v>207594.828</v>
+        <v>207604.0714</v>
       </c>
       <c r="L21" s="1">
-        <v>13.0235</v>
+        <v>13.0241</v>
       </c>
       <c r="M21" s="1">
         <v>0</v>
@@ -15368,7 +15371,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-15</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>13.3527</v>
@@ -15398,10 +15401,10 @@
         <v>229746.378</v>
       </c>
       <c r="K22" s="1">
-        <v>224405.5981</v>
+        <v>224414.8415</v>
       </c>
       <c r="L22" s="1">
-        <v>13.0162</v>
+        <v>13.0168</v>
       </c>
       <c r="M22" s="1">
         <v>0</v>
@@ -15421,7 +15424,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-14</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>13.8804</v>
@@ -15451,10 +15454,10 @@
         <v>249178.8052</v>
       </c>
       <c r="K23" s="1">
-        <v>234405.5981</v>
+        <v>234414.8415</v>
       </c>
       <c r="L23" s="1">
-        <v>13.0313</v>
+        <v>13.0318</v>
       </c>
       <c r="M23" s="1">
         <v>0.5</v>
@@ -15474,7 +15477,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>-13</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>14.6268</v>
@@ -15504,10 +15507,10 @@
         <v>281132.0183</v>
       </c>
       <c r="K24" s="1">
-        <v>243639.5062</v>
+        <v>243648.7496</v>
       </c>
       <c r="L24" s="1">
-        <v>13.0625</v>
+        <v>13.063</v>
       </c>
       <c r="M24" s="1">
         <v>0</v>
@@ -15527,7 +15530,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>-12</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>15.3636</v>
@@ -15557,10 +15560,10 @@
         <v>304845.6754</v>
       </c>
       <c r="K25" s="1">
-        <v>243619.479</v>
+        <v>243628.8023</v>
       </c>
       <c r="L25" s="1">
-        <v>13.0624</v>
+        <v>13.0629</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
@@ -15580,7 +15583,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>-11</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>13.8711</v>
@@ -15610,10 +15613,10 @@
         <v>287028.4292</v>
       </c>
       <c r="K26" s="1">
-        <v>243991.078</v>
+        <v>244000.4013</v>
       </c>
       <c r="L26" s="1">
-        <v>13.0654</v>
+        <v>13.0659</v>
       </c>
       <c r="M26" s="1">
         <v>0.5</v>
@@ -15633,7 +15636,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>-10</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>14.1252</v>
@@ -15663,10 +15666,10 @@
         <v>310716.7175</v>
       </c>
       <c r="K27" s="1">
-        <v>282500.0609</v>
+        <v>282509.3842</v>
       </c>
       <c r="L27" s="1">
-        <v>13.1731</v>
+        <v>13.1735</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -15686,7 +15689,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>-9</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>14.1934</v>
@@ -15716,10 +15719,10 @@
         <v>322185.4555</v>
       </c>
       <c r="K28" s="1">
-        <v>295377.9944</v>
+        <v>295387.3177</v>
       </c>
       <c r="L28" s="1">
-        <v>13.213</v>
+        <v>13.2134</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -15739,7 +15742,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>-8</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>14.1176</v>
@@ -15769,10 +15772,10 @@
         <v>330371.9657</v>
       </c>
       <c r="K29" s="1">
-        <v>308637.902</v>
+        <v>308647.2254</v>
       </c>
       <c r="L29" s="1">
-        <v>13.2534</v>
+        <v>13.2538</v>
       </c>
       <c r="M29" s="1">
         <v>0.5</v>
@@ -15792,7 +15795,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>-7</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>15.3311</v>
@@ -15822,10 +15825,10 @@
         <v>380053.4775</v>
       </c>
       <c r="K30" s="1">
-        <v>320903.6143</v>
+        <v>320912.9376</v>
       </c>
       <c r="L30" s="1">
-        <v>13.2854</v>
+        <v>13.2858</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -15845,7 +15848,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>-6</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>15.3637</v>
@@ -15875,10 +15878,10 @@
         <v>390820.4886</v>
       </c>
       <c r="K31" s="1">
-        <v>311278.0268</v>
+        <v>311325.8229</v>
       </c>
       <c r="L31" s="1">
-        <v>13.2301</v>
+        <v>13.2322</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -15898,7 +15901,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>-5</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>14.6447</v>
@@ -15928,10 +15931,10 @@
         <v>383193.3123</v>
       </c>
       <c r="K32" s="1">
-        <v>325969.5124</v>
+        <v>326017.3085</v>
       </c>
       <c r="L32" s="1">
-        <v>13.3145</v>
+        <v>13.3165</v>
       </c>
       <c r="M32" s="1">
         <v>1</v>
@@ -15951,7 +15954,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>-4</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>15.486</v>
@@ -15981,10 +15984,10 @@
         <v>437556.7514</v>
       </c>
       <c r="K33" s="1">
-        <v>359301.9109</v>
+        <v>359349.707</v>
       </c>
       <c r="L33" s="1">
-        <v>13.4299</v>
+        <v>13.4317</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -16004,7 +16007,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>-3</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>16.1958</v>
@@ -16034,10 +16037,10 @@
         <v>466206.7567</v>
       </c>
       <c r="K34" s="1">
-        <v>352678.2116</v>
+        <v>352752.4735</v>
       </c>
       <c r="L34" s="1">
-        <v>13.3961</v>
+        <v>13.3989</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -16057,7 +16060,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>-2</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>16.4264</v>
@@ -16087,10 +16090,10 @@
         <v>482230.9475</v>
       </c>
       <c r="K35" s="1">
-        <v>350121.2393</v>
+        <v>350205.7113</v>
       </c>
       <c r="L35" s="1">
-        <v>13.379</v>
+        <v>13.3823</v>
       </c>
       <c r="M35" s="1">
         <v>0.75</v>
@@ -16110,7 +16113,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>-1</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>17.107</v>
@@ -16140,10 +16143,10 @@
         <v>528055.7484</v>
       </c>
       <c r="K36" s="1">
-        <v>360483.2019</v>
+        <v>360567.6739</v>
       </c>
       <c r="L36" s="1">
-        <v>13.4514</v>
+        <v>13.4546</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -16163,7 +16166,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>16.8894</v>
@@ -16193,10 +16196,10 @@
         <v>532255.5273</v>
       </c>
       <c r="K37" s="1">
-        <v>358864.8661</v>
+        <v>358955.8053</v>
       </c>
       <c r="L37" s="1">
-        <v>13.4384</v>
+        <v>13.4418</v>
       </c>
       <c r="M37" s="1">
         <v>1</v>
@@ -16216,7 +16219,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>16.4004</v>
@@ -16246,10 +16249,10 @@
         <v>552511.5527999999</v>
       </c>
       <c r="K38" s="1">
-        <v>381594.6951</v>
+        <v>381685.6343</v>
       </c>
       <c r="L38" s="1">
-        <v>13.6052</v>
+        <v>13.6085</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -16269,7 +16272,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>15.3877</v>
@@ -16299,10 +16302,10 @@
         <v>532139.6809</v>
       </c>
       <c r="K39" s="1">
-        <v>412496.882</v>
+        <v>412587.8211</v>
       </c>
       <c r="L39" s="1">
-        <v>13.7829</v>
+        <v>13.786</v>
       </c>
       <c r="M39" s="1">
         <v>0</v>
@@ -16322,7 +16325,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>14.6367</v>
@@ -16352,10 +16355,10 @@
         <v>517194.7076</v>
       </c>
       <c r="K40" s="1">
-        <v>460283.8926</v>
+        <v>460374.8317</v>
       </c>
       <c r="L40" s="1">
-        <v>13.9364</v>
+        <v>13.9392</v>
       </c>
       <c r="M40" s="1">
         <v>0</v>
@@ -16375,7 +16378,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>13.0061</v>
@@ -16405,10 +16408,10 @@
         <v>468560.0032</v>
       </c>
       <c r="K41" s="1">
-        <v>502815.8723</v>
+        <v>502906.8115</v>
       </c>
       <c r="L41" s="1">
-        <v>13.9953</v>
+        <v>13.9978</v>
       </c>
       <c r="M41" s="1">
         <v>0.5</v>
@@ -16428,7 +16431,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>13.835</v>
@@ -16458,10 +16461,10 @@
         <v>525173.2308</v>
       </c>
       <c r="K42" s="1">
-        <v>515033.801</v>
+        <v>515124.7402</v>
       </c>
       <c r="L42" s="1">
-        <v>13.9708</v>
+        <v>13.9733</v>
       </c>
       <c r="M42" s="1">
         <v>0</v>
@@ -16481,7 +16484,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>14.4216</v>
@@ -16511,10 +16514,10 @@
         <v>557758.2996</v>
       </c>
       <c r="K43" s="1">
-        <v>541201.1598</v>
+        <v>541292.099</v>
       </c>
       <c r="L43" s="1">
-        <v>13.9655</v>
+        <v>13.9679</v>
       </c>
       <c r="M43" s="1">
         <v>0</v>
@@ -16534,7 +16537,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>13.2404</v>
@@ -16564,10 +16567,10 @@
         <v>521217.1205</v>
       </c>
       <c r="K44" s="1">
-        <v>551201.1598</v>
+        <v>551292.099</v>
       </c>
       <c r="L44" s="1">
-        <v>13.9741</v>
+        <v>13.9764</v>
       </c>
       <c r="M44" s="1">
         <v>0.4</v>
@@ -16587,7 +16590,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>12.382</v>
@@ -16617,10 +16620,10 @@
         <v>510939.2917</v>
       </c>
       <c r="K45" s="1">
-        <v>561201.1598</v>
+        <v>561292.099</v>
       </c>
       <c r="L45" s="1">
-        <v>13.9608</v>
+        <v>13.9631</v>
       </c>
       <c r="M45" s="1">
         <v>0</v>
@@ -16640,7 +16643,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>11.9583</v>
@@ -16670,10 +16673,10 @@
         <v>503021.9842</v>
       </c>
       <c r="K46" s="1">
-        <v>585401.219</v>
+        <v>585492.1581999999</v>
       </c>
       <c r="L46" s="1">
-        <v>13.8889</v>
+        <v>13.891</v>
       </c>
       <c r="M46" s="1">
         <v>0</v>
@@ -16693,7 +16696,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>12.2036</v>
@@ -16723,10 +16726,10 @@
         <v>523504.3637</v>
       </c>
       <c r="K47" s="1">
-        <v>595401.219</v>
+        <v>595492.1581999999</v>
       </c>
       <c r="L47" s="1">
-        <v>13.8519</v>
+        <v>13.854</v>
       </c>
       <c r="M47" s="1">
         <v>0.4</v>
@@ -16746,7 +16749,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>12.9136</v>
@@ -16776,10 +16779,10 @@
         <v>579976.0024</v>
       </c>
       <c r="K48" s="1">
-        <v>605401.219</v>
+        <v>605492.1581999999</v>
       </c>
       <c r="L48" s="1">
-        <v>13.8215</v>
+        <v>13.8236</v>
       </c>
       <c r="M48" s="1">
         <v>0</v>
@@ -16799,7 +16802,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>13.4338</v>
@@ -16829,10 +16832,10 @@
         <v>613633.4118</v>
       </c>
       <c r="K49" s="1">
-        <v>630875.2708000001</v>
+        <v>630966.21</v>
       </c>
       <c r="L49" s="1">
-        <v>13.7836</v>
+        <v>13.7856</v>
       </c>
       <c r="M49" s="1">
         <v>0</v>
@@ -16852,7 +16855,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>12.9657</v>
@@ -16882,10 +16885,10 @@
         <v>601867.2804</v>
       </c>
       <c r="K50" s="1">
-        <v>640875.2708000001</v>
+        <v>640966.21</v>
       </c>
       <c r="L50" s="1">
-        <v>13.7784</v>
+        <v>13.7804</v>
       </c>
       <c r="M50" s="1">
         <v>0.3</v>
@@ -16905,7 +16908,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>13.3568</v>
@@ -16935,10 +16938,10 @@
         <v>642840.2047999999</v>
       </c>
       <c r="K51" s="1">
-        <v>650875.2708000001</v>
+        <v>650966.21</v>
       </c>
       <c r="L51" s="1">
-        <v>13.7656</v>
+        <v>13.7676</v>
       </c>
       <c r="M51" s="1">
         <v>0</v>
@@ -16958,7 +16961,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>13.2487</v>
@@ -16988,10 +16991,10 @@
         <v>647466.368</v>
       </c>
       <c r="K52" s="1">
-        <v>673433.7466</v>
+        <v>673524.6858</v>
       </c>
       <c r="L52" s="1">
-        <v>13.7525</v>
+        <v>13.7543</v>
       </c>
       <c r="M52" s="1">
         <v>0</v>
@@ -17011,7 +17014,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>13.3991</v>
@@ -17041,10 +17044,10 @@
         <v>664889.6277</v>
       </c>
       <c r="K53" s="1">
-        <v>683433.7466</v>
+        <v>683524.6858</v>
       </c>
       <c r="L53" s="1">
-        <v>13.7453</v>
+        <v>13.7471</v>
       </c>
       <c r="M53" s="1">
         <v>0.4</v>
@@ -17064,7 +17067,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>13.5985</v>
@@ -17094,10 +17097,10 @@
         <v>702792.1948000001</v>
       </c>
       <c r="K54" s="1">
-        <v>693433.7466</v>
+        <v>693524.6858</v>
       </c>
       <c r="L54" s="1">
-        <v>13.7405</v>
+        <v>13.7423</v>
       </c>
       <c r="M54" s="1">
         <v>0</v>
@@ -17117,7 +17120,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>13.6955</v>
@@ -17147,10 +17150,10 @@
         <v>717764.1442</v>
       </c>
       <c r="K55" s="1">
-        <v>721333.4547</v>
+        <v>721424.3939</v>
       </c>
       <c r="L55" s="1">
-        <v>13.7361</v>
+        <v>13.7378</v>
       </c>
       <c r="M55" s="1">
         <v>0</v>
@@ -17170,7 +17173,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>13.3398</v>
@@ -17200,10 +17203,10 @@
         <v>708823.1132</v>
       </c>
       <c r="K56" s="1">
-        <v>731333.4547</v>
+        <v>731424.3939</v>
       </c>
       <c r="L56" s="1">
-        <v>13.7359</v>
+        <v>13.7376</v>
       </c>
       <c r="M56" s="1">
         <v>0.3</v>
@@ -17223,7 +17226,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>12.8469</v>
@@ -17253,10 +17256,10 @@
         <v>706600.6358</v>
       </c>
       <c r="K57" s="1">
-        <v>741333.4547</v>
+        <v>741424.3939</v>
       </c>
       <c r="L57" s="1">
-        <v>13.7308</v>
+        <v>13.7325</v>
       </c>
       <c r="M57" s="1">
         <v>0</v>
@@ -17276,7 +17279,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>13.129</v>
@@ -17306,10 +17309,10 @@
         <v>732234.7249</v>
       </c>
       <c r="K58" s="1">
-        <v>765708.9375</v>
+        <v>765799.8767</v>
       </c>
       <c r="L58" s="1">
-        <v>13.7017</v>
+        <v>13.7033</v>
       </c>
       <c r="M58" s="1">
         <v>0</v>
@@ -17329,7 +17332,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>12.716</v>
@@ -17359,10 +17362,10 @@
         <v>718851.5787</v>
       </c>
       <c r="K59" s="1">
-        <v>775708.9375</v>
+        <v>775799.8767</v>
       </c>
       <c r="L59" s="1">
-        <v>13.6944</v>
+        <v>13.696</v>
       </c>
       <c r="M59" s="1">
         <v>0.3</v>
@@ -17382,7 +17385,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>12.4613</v>
@@ -17412,10 +17415,10 @@
         <v>729507.1067</v>
       </c>
       <c r="K60" s="1">
-        <v>785708.9375</v>
+        <v>785799.8767</v>
       </c>
       <c r="L60" s="1">
-        <v>13.6813</v>
+        <v>13.6829</v>
       </c>
       <c r="M60" s="1">
         <v>0</v>
@@ -17435,7 +17438,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>12.6545</v>
@@ -17465,10 +17468,10 @@
         <v>750868.9441</v>
       </c>
       <c r="K61" s="1">
-        <v>811002.9288</v>
+        <v>811093.868</v>
       </c>
       <c r="L61" s="1">
-        <v>13.6406</v>
+        <v>13.6421</v>
       </c>
       <c r="M61" s="1">
         <v>0</v>
@@ -17488,7 +17491,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>12.2345</v>
@@ -17518,10 +17521,10 @@
         <v>735574.8263</v>
       </c>
       <c r="K62" s="1">
-        <v>821002.9288</v>
+        <v>821093.868</v>
       </c>
       <c r="L62" s="1">
-        <v>13.628</v>
+        <v>13.6296</v>
       </c>
       <c r="M62" s="1">
         <v>0.3</v>
@@ -17546,13 +17549,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" customWidth="1"/>
@@ -17597,16 +17600,16 @@
         <v>13.5832</v>
       </c>
       <c r="D3" s="1">
-        <v>13.2796</v>
+        <v>13.2876</v>
       </c>
       <c r="E3" s="1">
-        <v>13.3099</v>
+        <v>13.3164</v>
       </c>
       <c r="F3" s="1">
-        <v>13.4502</v>
+        <v>13.4533</v>
       </c>
       <c r="G3" s="1">
-        <v>13.628</v>
+        <v>13.6296</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -17716,6 +17719,26 @@
       </c>
       <c r="G8" s="1">
         <v>237359.6504</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.8989</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.1508</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.9966</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.9076</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.8958</v>
       </c>
     </row>
   </sheetData>
